--- a/BalanceSheet/BURL_bal.xlsx
+++ b/BalanceSheet/BURL_bal.xlsx
@@ -458,19 +458,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>126198000.0</v>
+        <v>741000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-259433000.0</v>
+        <v>867000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>18354000.0</v>
+        <v>608000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>151340000.0</v>
+        <v>626000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>227139000.0</v>
+        <v>777000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1004386000.0</v>
@@ -1570,19 +1570,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-56710000.0</v>
+        <v>863000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>431067000.0</v>
+        <v>921000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-199373000.0</v>
+        <v>492000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-70377000.0</v>
+        <v>702000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-126913000.0</v>
+        <v>759000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>888434000.0</v>
@@ -2680,19 +2680,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-5456000.0</v>
+        <v>206000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>-13580000.0</v>
+        <v>200000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>-1777000.0</v>
+        <v>213000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-4146000.0</v>
+        <v>214000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>10554000.0</v>
+        <v>178000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>171626000.0</v>
